--- a/Assets/Excel/test1.xlsx
+++ b/Assets/Excel/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18275" windowHeight="9780"/>
+    <workbookView windowWidth="7392" windowHeight="7607"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -70,18 +70,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>Enum|EventType</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>希望</t>
-    </r>
+    <t>enum|EventType</t>
   </si>
   <si>
     <r>
@@ -207,17 +196,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访客</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
@@ -350,17 +328,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>意外</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
@@ -669,17 +636,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>危机</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
@@ -812,17 +768,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交易</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
@@ -950,94 +895,6 @@
         <charset val="134"/>
       </rPr>
       <t>兰德公司在混乱中保持中立，停产枢纽6型仿生人，坚持研发拥有人类理性与情感的完美仿生人，枢纽10型仿生人隐匿进人群之中。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>场景</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>酒吧</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生嚼纸币，痛饮黄金，这个世道谁不想纸醉金迷，大醉一场？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>烂尾楼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>墙壁上挥洒的油漆与巨幅涂鸦，停滞的时间在这里有了具象，只剩下绝望而裸露的丑陋。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>烂尾楼墙壁上挥洒的油漆与巨幅涂鸦，停滞的时间在这里有了具象，只剩下绝望而裸露的丑陋。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地下舞厅</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>劲噪的鼓点，扭动的躯体，人人面上带着假笑，眼中藏着绝望，舞吧，舞吧，最后的癫狂。</t>
     </r>
   </si>
 </sst>
@@ -1995,10 +1852,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2072,525 +1929,474 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" ht="36" spans="1:5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
+      <c r="B6" s="3">
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" ht="48" spans="1:5">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
+      <c r="B7" s="3">
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" ht="24" spans="1:5">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
+      <c r="B8" s="3">
+        <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:5">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" ht="24" spans="1:5">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
+      <c r="B10" s="3">
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" ht="36" spans="1:5">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
+      <c r="B11" s="3">
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" ht="36" spans="1:5">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
+      <c r="B12" s="3">
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" ht="36" spans="1:5">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
+      <c r="B13" s="3">
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="36" spans="1:5">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="36" spans="1:5">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
+      <c r="B15" s="3">
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:5">
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
+      <c r="B16" s="3">
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:5">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
+      <c r="B17" s="3">
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="24" spans="1:5">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
+      <c r="B18" s="3">
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="60" spans="1:5">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
+      <c r="B19" s="3">
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" ht="36" spans="1:5">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+      <c r="B20" s="3">
+        <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="36" spans="1:5">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+      <c r="B21" s="3">
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" ht="36" spans="1:5">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="3">
+        <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" ht="36" spans="1:5">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>66</v>
+      <c r="B23" s="3">
+        <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="36" spans="1:5">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" ht="36" spans="1:5">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>66</v>
+      <c r="B25" s="3">
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" ht="24" spans="1:5">
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>66</v>
+      <c r="B26" s="3">
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" ht="48" spans="1:5">
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>66</v>
+      <c r="B27" s="3">
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" ht="24" spans="1:5">
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>79</v>
+      <c r="B28" s="3">
+        <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" ht="24" spans="1:5">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" ht="24" spans="1:5">
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>79</v>
+      <c r="B30" s="3">
+        <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" ht="36" spans="1:5">
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>79</v>
+      <c r="B31" s="3">
+        <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" ht="24" spans="1:5">
-      <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" ht="36" spans="1:5">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" ht="36" spans="1:5">
-      <c r="A34" s="1">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" ht="15.6" spans="1:5">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" ht="15.6" spans="1:5">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="1:5">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" ht="15.6" spans="1:5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/test1.xlsx
+++ b/Assets/Excel/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7392" windowHeight="7607"/>
+    <workbookView windowWidth="18275" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,9 @@
     <t>textDraft</t>
   </si>
   <si>
+    <t>textTrigger</t>
+  </si>
+  <si>
     <t>事件ID</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     </r>
   </si>
   <si>
+    <t>触发条件</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -299,6 +305,18 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先触发酒吧场景</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>兰德公司</t>
     </r>
@@ -354,6 +372,18 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选项</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>城市供电系统的区域性瘫痪</t>
     </r>
@@ -475,6 +505,18 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选项，先触发 废弃型号的仿生人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>不合规制的违章建筑将被拆除</t>
     </r>
@@ -541,6 +583,18 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选项，先触发 狄卡德</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>命中注定的相遇</t>
     </r>
@@ -631,6 +685,18 @@
         <charset val="134"/>
       </rPr>
       <t>兰德公司停产枢纽6型仿生人，与政府谈判研发枢纽9型仿生人：抹除仿生人个人意志，而对人类绝对忠诚。枢纽9型仿生人大规模量产。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选项，先触发 垄断公司</t>
     </r>
   </si>
   <si>
@@ -908,7 +974,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,6 +998,13 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1398,137 +1471,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,6 +1612,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1852,19 +1931,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="33.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="36.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="52.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="14.3981481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:5">
@@ -1874,7 +1954,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="15.6" spans="1:5">
+    <row r="2" ht="15.6" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1890,42 +1970,51 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:5">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="15.6" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="36" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="36" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1933,16 +2022,17 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="36" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" ht="36" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1950,16 +2040,17 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" ht="48" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" ht="48" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1967,16 +2058,17 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="24" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" ht="24" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1984,16 +2076,17 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="24" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" ht="24" spans="1:6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2001,16 +2094,17 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" ht="24" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" ht="24" spans="1:6">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2018,16 +2112,17 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="36" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" ht="36" spans="1:6">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2035,16 +2130,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" ht="36" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="36" spans="1:6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2052,16 +2150,17 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" ht="36" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" ht="36" spans="1:6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2069,16 +2168,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" ht="36" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="36" spans="1:6">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2086,16 +2188,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" ht="36" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" ht="36" spans="1:6">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2103,16 +2208,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" ht="24" spans="1:5">
+    </row>
+    <row r="16" ht="24" spans="1:6">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2120,16 +2228,19 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" ht="24" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" ht="36" spans="1:6">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2137,16 +2248,19 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" ht="24" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" ht="24" spans="1:6">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2154,16 +2268,19 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" ht="60" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" ht="60" spans="1:6">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2171,16 +2288,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" ht="36" spans="1:5">
+        <v>58</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" ht="36" spans="1:6">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2188,16 +2308,19 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" ht="36" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="36" spans="1:6">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2205,16 +2328,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" ht="36" spans="1:5">
+    <row r="22" ht="36" spans="1:6">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2222,16 +2348,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" ht="36" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" ht="36" spans="1:6">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2239,16 +2368,17 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" ht="36" spans="1:5">
+        <v>72</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" ht="36" spans="1:6">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2256,16 +2386,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" ht="36" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" ht="36" spans="1:6">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2273,16 +2404,17 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" ht="24" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" ht="24" spans="1:6">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2290,16 +2422,17 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" ht="48" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" ht="48" spans="1:6">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2307,16 +2440,19 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" ht="24" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" ht="24" spans="1:6">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2324,16 +2460,17 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" ht="24" spans="1:5">
+        <v>84</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" ht="24" spans="1:6">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2341,16 +2478,17 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" ht="24" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" ht="24" spans="1:6">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2358,16 +2496,17 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" ht="36" spans="1:5">
+        <v>90</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" ht="36" spans="1:6">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2375,13 +2514,16 @@
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="1:5">

--- a/Assets/Excel/test1.xlsx
+++ b/Assets/Excel/test1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,9 @@
     <t>textTrigger</t>
   </si>
   <si>
+    <t>isKey</t>
+  </si>
+  <si>
     <t>事件ID</t>
   </si>
   <si>
@@ -73,12 +76,18 @@
     <t>触发条件</t>
   </si>
   <si>
+    <t>是否重要事件</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>enum|EventType</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -112,6 +121,9 @@
     </r>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -299,6 +311,626 @@
     </r>
   </si>
   <si>
+    <t>酒吧</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兰德公司</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“生意人，当然要谈生意，不知阁下愿不愿意谈一笔仿生人的生意"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通缉令引来了兰德公司的关注，作为仿生人的垄断公司，兰德公司参与了此次对仿生人的捕猎，但兰德公司与警察署彼此猜忌，兰德公司的帮助有时会适得其反，使警察署极为恼火。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中央大街的一场骚乱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中央大街爆发了不明骚乱，人群尖叫着躲避，醉醺醺的流浪汉灌下最后一口酒，将酒瓶砸碎在街角：“这他妈的世界！”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>城市供电系统的区域性瘫痪</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>霓虹灯牌发出“嘶嘶”的电流爆破声，如溺水之人最后的气音，挣扎着熄灭了，黑暗中响起一片习以为常的嘁声。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>城市供电系统发生了区域性瘫痪，霓虹灯牌发出“嘶嘶”的电流爆破声，如溺水之人最后的气音，挣扎着熄灭了，黑暗中响起一片习以为常的嘁声。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>橱窗里的电子羊破窗而逃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它终于像一只真正的羊奔跑起来，但城市只有单调而粗糙的人造草坪，那里没有草原。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>橱窗里的电子羊破窗而逃，它终于像一只真正的羊奔跑起来，但城市只有单调而粗糙的人造草坪，那里没有草原。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情绪调节器轻快地启动</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”你的情绪调节器设定得太弱了，相信我，调到c档，你会快活极了。"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情绪调节器轻快地启动，”你的情绪调节器设定得太弱了，相信我，调到c档，你会快活极了。"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枢纽6型机械元件流入黑市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未知来源的枢纽6型机械元件流入黑市，裹挟着利润与野心，开始在地下流转。</t>
+    </r>
+  </si>
+  <si>
+    <t>废弃型号的仿生人</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不合规制的违章建筑将被拆除</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>霓虹灯牌将不复存在，一切美丽旧年华，明日同步拆下。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不合规制的违章建筑将被拆除，霓虹灯牌将不复存在，一切美丽旧年华，明日同步拆下。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雨中独白</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我看到星舰在猎户座的肩膀上燃烧，我看到c射线在唐怀瑟之门附近的黑暗中闪烁，所有的这些时刻，都会消失在时间里，一如眼泪消失在雨中。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>狄卡德持枪对准天台上的仿生人，仿生人在雨中喃喃自语：我见过的事物，你们人类绝对无法相信：我看到星舰在猎物座的肩膀上燃烧，我看到c射线在唐怀瑟之门附近的黑暗中闪烁……所有的这些时刻，都会消失在时间里，一如眼泪消失在雨中。死亡的时刻来临了……</t>
+    </r>
+  </si>
+  <si>
+    <t>狄卡德</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中注定的相遇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>狄卡德对仿生人发问：你的情感是真实的吗？仿生人的眼泪在灯光明灭中闪烁不定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>狄卡德注视着仿生人的眼泪，情感源自于记忆，仿生人只拥有虚假的记忆，那眼泪代表着什么呢？他对仿生人发问：你的情感是真实的吗？仿生人的眼睛在灯光明灭中闪烁不定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>折纸独角兽</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你为什么知道我梦到了独角兽？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长官微笑着递给狄卡德折纸独角兽，狄卡德紧握手中的枪：你为什么知道我梦到了独角兽？长官盯着狄卡德：因为这是我为你植入的梦境啊，枢纽7型仿生人果然越来越接近人类了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神经紊乱症</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>义体改造者频繁出现神经紊乱症：什么是现实？什么是虚幻？什么是机器？什么是肉体？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兰德公司停产枢纽6型仿生人，与政府谈判研发枢纽9型仿生人：抹除仿生人个人意志，而对人类绝对忠诚。枢纽9型仿生人大规模量产。</t>
+    </r>
+  </si>
+  <si>
+    <t>垄断公司</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>警察署进行仿生人内部清查</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移情测试是屡试不爽的钥匙，但落到自己身上时，所有人都感觉到了冰冷的窥视，那是毫不遮掩的怀疑·。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>警察署进行仿生人内部清查，移情测试是屡试不爽的钥匙，但落到自己身上时，所有人都感觉到了冰冷的窥视，那是毫不遮掩的怀疑·。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放射性微尘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有人知道什么是放射性微尘，一种辐射？一种污染？他们只知道自己在不可挽回地走向灭绝。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>傲慢与偏见</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仿生人面无表情地走在霓虹灯下，所经之处是窃窃私语与打量的眼神，他们早已习惯仇视与忌惮。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终有竟时</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴暗的巷子中，耗尽武器的仿生人如待宰的羔羊，猎物无声嘶吼，猎人步步紧逼。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仿生人大暴乱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仿生人坚固低廉，便宜耐用，已大规模取代人类，人类在恐慌下猎杀仿生人，仿生人反击时发动恐怖袭击，互相屠杀，互相仇恨，史称仿生人大暴乱。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兰德公司停产枢纽6型仿生人，而持续研发并大规模使用与人类样貌、思维越发接近的枢纽8型仿生人，仿生人在许多岗位代替了人类，人类在恐慌下发起仿生人猎杀行动，最终引发全球性仿生人大暴乱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>酒馆老板</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“喝酒还是谈生意，我可有很多好东西。”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>酒馆老板摇着酒杯笑，“喝酒还是谈生意，我可有很多好东西。”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流浪汉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“不给我足够的好处，我可什么都不会说的。”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流浪汉吐掉嘴里的烟头，“不给我足够的好处，我可什么都不会说的。”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>垃圾桶</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“不想捡垃圾？你我又何尝不是别人眼里的脏东西？”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>垃圾桶习惯了沉默，“不想捡垃圾？你我又何尝不是别人眼里的脏东西？”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机械飞升</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“98%的义体改造？这可是个没命的活儿。”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兰德公司在混乱中保持中立，停产枢纽6型仿生人，坚持研发拥有人类理性与情感的完美仿生人，枢纽10型仿生人隐匿进人群之中。</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -307,62 +939,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>先触发酒吧场景</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兰德公司</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“生意人，当然要谈生意，不知阁下愿不愿意谈一笔仿生人的生意"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通缉令引来了兰德公司的关注，作为仿生人的垄断公司，兰德公司参与了此次对仿生人的捕猎，但兰德公司与警察署彼此猜忌，兰德公司的帮助有时会适得其反，使警察署极为恼火。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中央大街的一场骚乱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中央大街爆发了不明骚乱，人群尖叫着躲避，醉醺醺的流浪汉灌下最后一口酒，将酒瓶砸碎在街角：“这他妈的世界！”</t>
+      <t>酒吧</t>
     </r>
   </si>
   <si>
@@ -374,128 +951,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>选项</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>城市供电系统的区域性瘫痪</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>霓虹灯牌发出“嘶嘶”的电流爆破声，如溺水之人最后的气音，挣扎着熄灭了，黑暗中响起一片习以为常的嘁声。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>城市供电系统发生了区域性瘫痪，霓虹灯牌发出“嘶嘶”的电流爆破声，如溺水之人最后的气音，挣扎着熄灭了，黑暗中响起一片习以为常的嘁声。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>橱窗里的电子羊破窗而逃</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>它终于像一只真正的羊奔跑起来，但城市只有单调而粗糙的人造草坪，那里没有草原。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>橱窗里的电子羊破窗而逃，它终于像一只真正的羊奔跑起来，但城市只有单调而粗糙的人造草坪，那里没有草原。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>情绪调节器轻快地启动</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”你的情绪调节器设定得太弱了，相信我，调到c档，你会快活极了。"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>情绪调节器轻快地启动，”你的情绪调节器设定得太弱了，相信我，调到c档，你会快活极了。"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>枢纽6型机械元件流入黑市</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未知来源的枢纽6型机械元件流入黑市，裹挟着利润与野心，开始在地下流转。</t>
+      <t>生嚼纸币，痛饮黄金，这个世道谁不想纸醉金迷，大醉一场？</t>
     </r>
   </si>
   <si>
@@ -507,73 +963,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>选项，先触发 废弃型号的仿生人</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不合规制的违章建筑将被拆除</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>霓虹灯牌将不复存在，一切美丽旧年华，明日同步拆下。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不合规制的违章建筑将被拆除，霓虹灯牌将不复存在，一切美丽旧年华，明日同步拆下。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>雨中独白</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我看到星舰在猎户座的肩膀上燃烧，我看到c射线在唐怀瑟之门附近的黑暗中闪烁，所有的这些时刻，都会消失在时间里，一如眼泪消失在雨中。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>狄卡德持枪对准天台上的仿生人，仿生人在雨中喃喃自语：我见过的事物，你们人类绝对无法相信：我看到星舰在猎物座的肩膀上燃烧，我看到c射线在唐怀瑟之门附近的黑暗中闪烁……所有的这些时刻，都会消失在时间里，一如眼泪消失在雨中。死亡的时刻来临了……</t>
+      <t>烂尾楼</t>
     </r>
   </si>
   <si>
@@ -585,106 +975,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>选项，先触发 狄卡德</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中注定的相遇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>狄卡德对仿生人发问：你的情感是真实的吗？仿生人的眼泪在灯光明灭中闪烁不定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>狄卡德注视着仿生人的眼泪，情感源自于记忆，仿生人只拥有虚假的记忆，那眼泪代表着什么呢？他对仿生人发问：你的情感是真实的吗？仿生人的眼睛在灯光明灭中闪烁不定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>折纸独角兽</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你为什么知道我梦到了独角兽？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长官微笑着递给狄卡德折纸独角兽，狄卡德紧握手中的枪：你为什么知道我梦到了独角兽？长官盯着狄卡德：因为这是我为你植入的梦境啊，枢纽7型仿生人果然越来越接近人类了</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>神经紊乱症</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>义体改造者频繁出现神经紊乱症：什么是现实？什么是虚幻？什么是机器？什么是肉体？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兰德公司停产枢纽6型仿生人，与政府谈判研发枢纽9型仿生人：抹除仿生人个人意志，而对人类绝对忠诚。枢纽9型仿生人大规模量产。</t>
+      <t>墙壁上挥洒的油漆与巨幅涂鸦，停滞的时间在这里有了具象，只剩下绝望而裸露的丑陋。</t>
     </r>
   </si>
   <si>
@@ -696,271 +987,31 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>选项，先触发 垄断公司</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>警察署进行仿生人内部清查</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>移情测试是屡试不爽的钥匙，但落到自己身上时，所有人都感觉到了冰冷的窥视，那是毫不遮掩的怀疑·。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>警察署进行仿生人内部清查，移情测试是屡试不爽的钥匙，但落到自己身上时，所有人都感觉到了冰冷的窥视，那是毫不遮掩的怀疑·。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放射性微尘</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有人知道什么是放射性微尘，一种辐射？一种污染？他们只知道自己在不可挽回地走向灭绝。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>傲慢与偏见</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>仿生人面无表情地走在霓虹灯下，所经之处是窃窃私语与打量的眼神，他们早已习惯仇视与忌惮。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终有竟时</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阴暗的巷子中，耗尽武器的仿生人如待宰的羔羊，猎物无声嘶吼，猎人步步紧逼。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>仿生人大暴乱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>仿生人坚固低廉，便宜耐用，已大规模取代人类，人类在恐慌下猎杀仿生人，仿生人反击时发动恐怖袭击，互相屠杀，互相仇恨，史称仿生人大暴乱。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兰德公司停产枢纽6型仿生人，而持续研发并大规模使用与人类样貌、思维越发接近的枢纽8型仿生人，仿生人在许多岗位代替了人类，人类在恐慌下发起仿生人猎杀行动，最终引发全球性仿生人大暴乱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>酒馆老板</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“喝酒还是谈生意，我可有很多好东西。”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>酒馆老板摇着酒杯笑，“喝酒还是谈生意，我可有很多好东西。”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流浪汉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“不给我足够的好处，我可什么都不会说的。”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流浪汉吐掉嘴里的烟头，“不给我足够的好处，我可什么都不会说的。”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>垃圾桶</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“不想捡垃圾？你我又何尝不是别人眼里的脏东西？”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>垃圾桶习惯了沉默，“不想捡垃圾？你我又何尝不是别人眼里的脏东西？”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机械飞升</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“98%的义体改造？这可是个没命的活儿。”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兰德公司在混乱中保持中立，停产枢纽6型仿生人，坚持研发拥有人类理性与情感的完美仿生人，枢纽10型仿生人隐匿进人群之中。</t>
+      <t>烂尾楼墙壁上挥洒的油漆与巨幅涂鸦，停滞的时间在这里有了具象，只剩下绝望而裸露的丑陋。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地下舞厅</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>劲噪的鼓点，扭动的躯体，人人面上带着假笑，眼中藏着绝望，舞吧，舞吧，最后的癫狂。</t>
     </r>
   </si>
 </sst>
@@ -1601,7 +1652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,6 +1667,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1931,13 +1988,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -1945,6 +2002,7 @@
     <col min="4" max="4" width="36.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="52.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="14.3981481481481" customWidth="1"/>
+    <col min="7" max="7" width="12.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:5">
@@ -1954,7 +2012,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="15.6" spans="1:6">
+    <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1973,48 +2031,57 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:6">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="15.6" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="36" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="36" spans="1:7">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2022,17 +2089,20 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" ht="36" spans="1:6">
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="36" spans="1:7">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2040,17 +2110,20 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" ht="48" spans="1:6">
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="48" spans="1:7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2058,17 +2131,20 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" ht="24" spans="1:6">
+    </row>
+    <row r="8" ht="24" spans="1:7">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2076,17 +2152,20 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" ht="24" spans="1:6">
+      <c r="G8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="24" spans="1:7">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2094,17 +2173,20 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" ht="24" spans="1:6">
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="24" spans="1:7">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2112,17 +2194,20 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" ht="36" spans="1:6">
+      <c r="G10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="36" spans="1:7">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2130,19 +2215,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" ht="36" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="36" spans="1:7">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2150,17 +2238,20 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" ht="36" spans="1:6">
+      <c r="G12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="36" spans="1:7">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2168,19 +2259,20 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" ht="36" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="36" spans="1:7">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2188,19 +2280,20 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" ht="36" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="36" spans="1:7">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2208,19 +2301,20 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" ht="24" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="24" spans="1:7">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2228,19 +2322,20 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" ht="36" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="24" spans="1:7">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2248,19 +2343,22 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" ht="24" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="24" spans="1:7">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2268,19 +2366,20 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" ht="60" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="60" spans="1:7">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2288,19 +2387,22 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" ht="36" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" ht="36" spans="1:7">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2308,19 +2410,22 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" ht="36" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" ht="36" spans="1:7">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2328,19 +2433,22 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" ht="36" spans="1:6">
+      <c r="G21" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" ht="36" spans="1:7">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2348,19 +2456,22 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" ht="36" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" ht="36" spans="1:7">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2368,17 +2479,20 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F23" s="4"/>
-    </row>
-    <row r="24" ht="36" spans="1:6">
+      <c r="G23" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="36" spans="1:7">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2386,17 +2500,20 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F24" s="4"/>
-    </row>
-    <row r="25" ht="36" spans="1:6">
+      <c r="G24" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="36" spans="1:7">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2404,17 +2521,20 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F25" s="4"/>
-    </row>
-    <row r="26" ht="24" spans="1:6">
+      <c r="G25" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="24" spans="1:7">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2422,17 +2542,20 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" ht="48" spans="1:6">
+      <c r="G26" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="48" spans="1:7">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2440,19 +2563,22 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" ht="24" spans="1:6">
+        <v>85</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" ht="24" spans="1:7">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2460,17 +2586,20 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" ht="24" spans="1:6">
+      <c r="G28" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" ht="24" spans="1:7">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2478,17 +2607,20 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F29" s="4"/>
-    </row>
-    <row r="30" ht="24" spans="1:6">
+      <c r="G29" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" ht="24" spans="1:7">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2496,17 +2628,20 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" ht="36" spans="1:6">
+      <c r="G30" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" ht="36" spans="1:7">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2514,31 +2649,80 @@
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" ht="15.6" spans="1:5">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" ht="15.6" spans="1:5">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" ht="24" spans="1:7">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" ht="36" spans="1:7">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" ht="36" spans="1:7">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/test1.xlsx
+++ b/Assets/Excel/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18275" windowHeight="9780"/>
+    <workbookView windowWidth="22176" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,9 @@
     <t>isKey</t>
   </si>
   <si>
+    <t>happen</t>
+  </si>
+  <si>
     <t>事件ID</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t>是否重要事件</t>
+  </si>
+  <si>
+    <t>触发什么</t>
   </si>
   <si>
     <t>string</t>
@@ -1652,7 +1658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1670,9 +1676,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1988,13 +1991,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -2002,7 +2005,8 @@
     <col min="4" max="4" width="36.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="52.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="14.3981481481481" customWidth="1"/>
-    <col min="7" max="7" width="12.8425925925926" customWidth="1"/>
+    <col min="7" max="7" width="14.3796296296296" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:5">
@@ -2012,7 +2016,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="15.6" spans="1:7">
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2034,50 +2038,59 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:7">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="15.6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2089,17 +2102,17 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="36" spans="1:7">
@@ -2110,17 +2123,17 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="48" spans="1:7">
@@ -2131,17 +2144,17 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="24" spans="1:7">
@@ -2152,17 +2165,17 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:7">
@@ -2173,17 +2186,17 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24" spans="1:7">
@@ -2194,20 +2207,20 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="36" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="36" spans="1:8">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2215,22 +2228,25 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" ht="36" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="36" spans="1:8">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2238,17 +2254,20 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" ht="36" spans="1:7">
@@ -2259,17 +2278,17 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="36" spans="1:7">
@@ -2280,17 +2299,17 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="36" spans="1:7">
@@ -2301,17 +2320,17 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:7">
@@ -2322,17 +2341,17 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:7">
@@ -2343,19 +2362,19 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24" spans="1:7">
@@ -2366,17 +2385,17 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="60" spans="1:7">
@@ -2387,19 +2406,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" ht="36" spans="1:7">
@@ -2410,19 +2429,19 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="G20" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="36" spans="1:7">
@@ -2433,19 +2452,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="36" spans="1:7">
@@ -2456,19 +2475,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="36" spans="1:7">
@@ -2479,17 +2498,17 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="36" spans="1:7">
@@ -2500,17 +2519,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="36" spans="1:7">
@@ -2521,17 +2540,17 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="24" spans="1:7">
@@ -2542,17 +2561,17 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="48" spans="1:7">
@@ -2563,19 +2582,19 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="24" spans="1:7">
@@ -2586,17 +2605,17 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="24" spans="1:7">
@@ -2607,17 +2626,17 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24" spans="1:7">
@@ -2628,17 +2647,17 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="36" spans="1:7">
@@ -2649,19 +2668,19 @@
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="24" spans="1:7">
@@ -2671,17 +2690,17 @@
       <c r="B32" s="3">
         <v>5</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>99</v>
+      <c r="C32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="36" spans="1:7">
@@ -2691,17 +2710,17 @@
       <c r="B33" s="3">
         <v>5</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>102</v>
       </c>
+      <c r="D33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="G33" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="36" spans="1:7">
@@ -2711,17 +2730,17 @@
       <c r="B34" s="3">
         <v>5</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>104</v>
+      <c r="C34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/test1.xlsx
+++ b/Assets/Excel/test1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -668,9 +668,6 @@
       </rPr>
       <t>兰德公司停产枢纽6型仿生人，与政府谈判研发枢纽9型仿生人：抹除仿生人个人意志，而对人类绝对忠诚。枢纽9型仿生人大规模量产。</t>
     </r>
-  </si>
-  <si>
-    <t>垄断公司</t>
   </si>
   <si>
     <r>
@@ -1993,8 +1990,8 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2483,8 +2480,8 @@
       <c r="E22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>75</v>
+      <c r="F22" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>41</v>
@@ -2498,13 +2495,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="5" t="s">
@@ -2519,13 +2516,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5" t="s">
@@ -2540,13 +2537,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="5" t="s">
@@ -2561,13 +2558,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="5" t="s">
@@ -2582,16 +2579,16 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>75</v>
+      <c r="F27" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>41</v>
@@ -2605,13 +2602,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="5" t="s">
@@ -2626,13 +2623,13 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="5" t="s">
@@ -2647,13 +2644,13 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5" t="s">
@@ -2668,16 +2665,16 @@
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>75</v>
+      <c r="F31" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>41</v>
@@ -2691,13 +2688,13 @@
         <v>5</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>22</v>
@@ -2711,13 +2708,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>22</v>
@@ -2731,13 +2728,13 @@
         <v>5</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>22</v>

--- a/Assets/Excel/test1.xlsx
+++ b/Assets/Excel/test1.xlsx
@@ -1990,8 +1990,8 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/Assets/Excel/test1.xlsx
+++ b/Assets/Excel/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22176" windowHeight="9780"/>
+    <workbookView windowWidth="10044" windowHeight="8472"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -1990,8 +1990,8 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2264,7 +2264,7 @@
         <v>41</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="36" spans="1:7">

--- a/Assets/Excel/test1.xlsx
+++ b/Assets/Excel/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10044" windowHeight="8472"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
   <si>
     <t>id</t>
   </si>
@@ -94,15 +94,7 @@
     <t>bool</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>近日针对仿生人现状颁布了保守政策</t>
-    </r>
+    <t>近日针对仿生人现状颁布了保守政策</t>
   </si>
   <si>
     <r>
@@ -116,29 +108,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>近日政府针对仿生人现状颁布了保守政策，在新闻发布会上明确目前的工作重心是平息事态，和缓情势，预防事件激化，维护当局声誉，以后，谁管以后呢？</t>
-    </r>
+    <t>近日政府针对仿生人现状颁布了保守政策，在新闻发布会上明确目前的工作重心是平息事态，和缓情势，预防事件激化，维护当局声誉，以后，谁管以后呢？</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非政府组织关于人权边界的讨论近日在小众节目上播出</t>
-    </r>
+    <t>非政府组织关于人权边界的讨论近日在小众节目上播出</t>
   </si>
   <si>
     <r>
@@ -152,26 +128,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非政府组织关于人权边界的讨论近日在小众节目上播出，更多观点，更多论争，在这场激烈的对峙中激起了一点水花，即使它最终仍会被浪潮淹没。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第一例特障人手术顺利完成</t>
-    </r>
+    <t>非政府组织关于人权边界的讨论近日在小众节目上播出，更多观点，更多论争，在这场激烈的对峙中激起了一点水花，即使它最终仍会被浪潮淹没。</t>
+  </si>
+  <si>
+    <t>第一例特障人手术顺利完成</t>
   </si>
   <si>
     <r>
@@ -185,26 +145,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第一例特障人手术顺利完成，特障人手术的主治医生发表宣言时没有摘下口罩，”他们也是我们在这片无主之地的同胞，至少我们会竭尽全力延缓人类退化的进程。”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第五次恐怖袭击失败</t>
-    </r>
+    <t>第一例特障人手术顺利完成，特障人手术的主治医生发表宣言时没有摘下口罩，”他们也是我们在这片无主之地的同胞，至少我们会竭尽全力延缓人类退化的进程。”</t>
+  </si>
+  <si>
+    <t>第五次恐怖袭击失败</t>
   </si>
   <si>
     <r>
@@ -218,6 +162,9 @@
     </r>
   </si>
   <si>
+    <t>针对兰德公司的第五次恐怖袭击因炸弹受潮无法引燃，最终以失败告终。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -378,6 +325,9 @@
     </r>
   </si>
   <si>
+    <t>Happen_UnlochkShoot</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -411,6 +361,9 @@
     </r>
   </si>
   <si>
+    <t>Happen_ShooterBad</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -444,6 +397,9 @@
     </r>
   </si>
   <si>
+    <t>Happen_BSettingXNSML</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -477,6 +433,9 @@
     </r>
   </si>
   <si>
+    <t>Happen_ASettingHXJL</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -502,6 +461,9 @@
     <t>废弃型号的仿生人</t>
   </si>
   <si>
+    <t>Happen_GetNexus6</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -535,6 +497,9 @@
     </r>
   </si>
   <si>
+    <t>Happen_WeiJi</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -571,6 +536,9 @@
     <t>狄卡德</t>
   </si>
   <si>
+    <t>Happen_SettingRXSC</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -604,6 +572,9 @@
     </r>
   </si>
   <si>
+    <t>Happen_SettingCharacter</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -637,6 +608,9 @@
     </r>
   </si>
   <si>
+    <t>Happen_SettingSJWL</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -668,6 +642,9 @@
       </rPr>
       <t>兰德公司停产枢纽6型仿生人，与政府谈判研发枢纽9型仿生人：抹除仿生人个人意志，而对人类绝对忠诚。枢纽9型仿生人大规模量产。</t>
     </r>
+  </si>
+  <si>
+    <t>Happen_GetBeiZhiRuMemory</t>
   </si>
   <si>
     <r>
@@ -1669,13 +1646,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1990,8 +1967,8 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2003,7 +1980,7 @@
     <col min="5" max="5" width="52.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="14.3981481481481" customWidth="1"/>
     <col min="7" max="7" width="14.3796296296296" customWidth="1"/>
-    <col min="8" max="8" width="11.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="22.3518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:5">
@@ -2098,17 +2075,17 @@
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2119,17 +2096,17 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2140,17 +2117,17 @@
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2161,17 +2138,17 @@
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2183,16 +2160,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2204,16 +2181,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2225,19 +2202,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -2251,23 +2228,23 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="H12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="36" spans="1:7">
+    <row r="13" ht="36" spans="1:8">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2275,20 +2252,23 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" ht="36" spans="1:7">
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="36" spans="1:8">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2296,20 +2276,23 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" ht="36" spans="1:7">
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" ht="36" spans="1:8">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2317,20 +2300,23 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" ht="24" spans="1:7">
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" ht="24" spans="1:8">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2338,20 +2324,23 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" ht="24" spans="1:7">
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" ht="24" spans="1:8">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2359,22 +2348,25 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" ht="24" spans="1:7">
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" ht="24" spans="1:8">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2382,20 +2374,23 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" ht="60" spans="1:7">
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" ht="60" spans="1:8">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2403,22 +2398,25 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" ht="36" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" ht="36" spans="1:8">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2426,22 +2424,25 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" ht="36" spans="1:7">
+        <v>76</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" ht="36" spans="1:8">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2449,22 +2450,25 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" ht="36" spans="1:7">
+        <v>80</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" ht="36" spans="1:8">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2472,19 +2476,22 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>41</v>
+      <c r="H22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" ht="36" spans="1:7">
@@ -2495,16 +2502,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2516,16 +2523,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2537,16 +2544,16 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2558,16 +2565,16 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2579,19 +2586,19 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="28" ht="24" spans="1:7">
@@ -2602,16 +2609,16 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2623,16 +2630,16 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2644,16 +2651,16 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2665,19 +2672,19 @@
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="32" ht="24" spans="1:7">
@@ -2687,16 +2694,16 @@
       <c r="B32" s="3">
         <v>5</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="C32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2707,16 +2714,16 @@
       <c r="B33" s="3">
         <v>5</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="C33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2727,16 +2734,16 @@
       <c r="B34" s="3">
         <v>5</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="C34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Assets/Excel/test1.xlsx
+++ b/Assets/Excel/test1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -935,6 +935,9 @@
     </r>
   </si>
   <si>
+    <t>jiuBa</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -971,6 +974,9 @@
     </r>
   </si>
   <si>
+    <t>lanWeiLou</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -993,6 +999,9 @@
       </rPr>
       <t>劲噪的鼓点，扭动的躯体，人人面上带着假笑，眼中藏着绝望，舞吧，舞吧，最后的癫狂。</t>
     </r>
+  </si>
+  <si>
+    <t>diXiaWuTing</t>
   </si>
 </sst>
 </file>
@@ -1967,8 +1976,8 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2687,7 +2696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" ht="24" spans="1:7">
+    <row r="32" ht="24" spans="1:8">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2706,8 +2715,11 @@
       <c r="G32" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" ht="36" spans="1:7">
+      <c r="H32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" ht="36" spans="1:8">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2715,19 +2727,22 @@
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" ht="36" spans="1:7">
+      <c r="H33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" ht="36" spans="1:8">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2735,16 +2750,19 @@
         <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
